--- a/ACTIVSg200/5.IL200_dyn_80wt.xlsx
+++ b/ACTIVSg200/5.IL200_dyn_80wt.xlsx
@@ -16033,7 +16033,7 @@
         <v>0.5</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -16107,7 +16107,7 @@
         <v>0.5</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -16181,7 +16181,7 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -16255,7 +16255,7 @@
         <v>0.5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -16329,7 +16329,7 @@
         <v>0.5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -16403,7 +16403,7 @@
         <v>0.5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -16477,7 +16477,7 @@
         <v>0.5</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -16551,7 +16551,7 @@
         <v>0.5</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -16625,7 +16625,7 @@
         <v>0.5</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -16699,7 +16699,7 @@
         <v>0.5</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -16773,7 +16773,7 @@
         <v>0.5</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -16847,7 +16847,7 @@
         <v>0.5</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -16921,7 +16921,7 @@
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -16995,7 +16995,7 @@
         <v>0.5</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -17069,7 +17069,7 @@
         <v>0.5</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>0.5</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -17217,7 +17217,7 @@
         <v>0.5</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -17291,7 +17291,7 @@
         <v>0.5</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -17365,7 +17365,7 @@
         <v>0.5</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -17439,7 +17439,7 @@
         <v>0.5</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -17513,7 +17513,7 @@
         <v>0.5</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -17587,7 +17587,7 @@
         <v>0.5</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -17661,7 +17661,7 @@
         <v>0.5</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -17735,7 +17735,7 @@
         <v>0.5</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -17809,7 +17809,7 @@
         <v>0.5</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1</v>

--- a/ACTIVSg200/5.IL200_dyn_80wt.xlsx
+++ b/ACTIVSg200/5.IL200_dyn_80wt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1075">
   <si>
     <t>idx</t>
   </si>
@@ -2468,6 +2468,9 @@
   </si>
   <si>
     <t>IEEEG1_11</t>
+  </si>
+  <si>
+    <t>IEEEG1_12</t>
   </si>
   <si>
     <t>KT</t>
@@ -12468,7 +12471,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12577,7 +12580,7 @@
         <v>802</v>
       </c>
       <c r="E2" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12586,13 +12589,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>0.320319</v>
+        <v>0.278892</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>2.50944</v>
       </c>
       <c r="L2">
         <v>0.1</v>
@@ -12619,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>6.30006</v>
+        <v>7.52841</v>
       </c>
       <c r="U2">
         <v>0.5</v>
@@ -12660,7 +12663,7 @@
         <v>803</v>
       </c>
       <c r="E3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -12669,13 +12672,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.320319</v>
       </c>
       <c r="K3">
-        <v>2.50874</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
         <v>0.1</v>
@@ -12702,7 +12705,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7.5263</v>
+        <v>6.30006</v>
       </c>
       <c r="U3">
         <v>0.5</v>
@@ -12743,7 +12746,7 @@
         <v>804</v>
       </c>
       <c r="E4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12752,13 +12755,13 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2.50874</v>
       </c>
       <c r="L4">
         <v>0.1</v>
@@ -12785,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9.00009</v>
+        <v>7.5263</v>
       </c>
       <c r="U4">
         <v>0.5</v>
@@ -12826,7 +12829,7 @@
         <v>805</v>
       </c>
       <c r="E5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12835,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -12909,7 +12912,7 @@
         <v>806</v>
       </c>
       <c r="E6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12918,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>0.5</v>
@@ -12992,7 +12995,7 @@
         <v>807</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13007,7 +13010,7 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0.1</v>
@@ -13034,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>9.00009</v>
       </c>
       <c r="U7">
         <v>0.5</v>
@@ -13075,7 +13078,7 @@
         <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13084,13 +13087,13 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>0.41585</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
         <v>0.1</v>
@@ -13117,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9.00009</v>
+        <v>7</v>
       </c>
       <c r="U8">
         <v>0.5</v>
@@ -13158,7 +13161,7 @@
         <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13170,7 +13173,7 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>0.41585</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -13241,7 +13244,7 @@
         <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13324,7 +13327,7 @@
         <v>811</v>
       </c>
       <c r="E11" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13407,7 +13410,7 @@
         <v>812</v>
       </c>
       <c r="E12" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -13422,7 +13425,7 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.719882</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>0.1</v>
@@ -13449,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2.39961</v>
+        <v>9.00009</v>
       </c>
       <c r="U12">
         <v>0.5</v>
@@ -13473,6 +13476,89 @@
         <v>0</v>
       </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E13" t="s">
+        <v>707</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0.719882</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0.1</v>
+      </c>
+      <c r="N13">
+        <v>-0.1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2.39961</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.05</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>0</v>
       </c>
     </row>
@@ -13524,10 +13610,10 @@
         <v>730</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>731</v>
@@ -13547,13 +13633,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E2" t="s">
         <v>689</v>
@@ -13597,13 +13683,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E3" t="s">
         <v>690</v>
@@ -13647,13 +13733,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E4" t="s">
         <v>691</v>
@@ -13697,13 +13783,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E5" t="s">
         <v>692</v>
@@ -13747,13 +13833,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E6" t="s">
         <v>694</v>
@@ -13797,13 +13883,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E7" t="s">
         <v>695</v>
@@ -13847,13 +13933,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E8" t="s">
         <v>713</v>
@@ -13897,13 +13983,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E9" t="s">
         <v>715</v>
@@ -13947,13 +14033,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E10" t="s">
         <v>716</v>
@@ -13997,13 +14083,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E11" t="s">
         <v>717</v>
@@ -14047,13 +14133,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E12" t="s">
         <v>718</v>
@@ -14097,13 +14183,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E13" t="s">
         <v>719</v>
@@ -14175,22 +14261,22 @@
         <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>785</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14198,13 +14284,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E2" t="s">
         <v>676</v>
@@ -14233,13 +14319,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E3" t="s">
         <v>677</v>
@@ -14268,13 +14354,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E4" t="s">
         <v>678</v>
@@ -14303,13 +14389,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E5" t="s">
         <v>679</v>
@@ -14338,13 +14424,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E6" t="s">
         <v>680</v>
@@ -14373,13 +14459,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E7" t="s">
         <v>681</v>
@@ -14408,13 +14494,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E8" t="s">
         <v>682</v>
@@ -14443,13 +14529,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E9" t="s">
         <v>683</v>
@@ -14478,13 +14564,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E10" t="s">
         <v>684</v>
@@ -14513,13 +14599,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E11" t="s">
         <v>685</v>
@@ -14548,13 +14634,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E12" t="s">
         <v>686</v>
@@ -14583,13 +14669,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E13" t="s">
         <v>687</v>
@@ -14618,13 +14704,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E14" t="s">
         <v>688</v>
@@ -14653,13 +14739,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E15" t="s">
         <v>689</v>
@@ -14688,13 +14774,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -14723,13 +14809,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E17" t="s">
         <v>691</v>
@@ -14758,13 +14844,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E18" t="s">
         <v>692</v>
@@ -14793,13 +14879,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E19" t="s">
         <v>693</v>
@@ -14828,13 +14914,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E20" t="s">
         <v>694</v>
@@ -14863,13 +14949,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E21" t="s">
         <v>695</v>
@@ -14898,13 +14984,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E22" t="s">
         <v>696</v>
@@ -14933,13 +15019,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E23" t="s">
         <v>697</v>
@@ -14968,13 +15054,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E24" t="s">
         <v>698</v>
@@ -15003,13 +15089,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E25" t="s">
         <v>699</v>
@@ -15038,13 +15124,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E26" t="s">
         <v>700</v>
@@ -15073,13 +15159,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E27" t="s">
         <v>701</v>
@@ -15108,13 +15194,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E28" t="s">
         <v>702</v>
@@ -15143,13 +15229,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E29" t="s">
         <v>703</v>
@@ -15178,13 +15264,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E30" t="s">
         <v>704</v>
@@ -15213,13 +15299,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E31" t="s">
         <v>705</v>
@@ -15248,13 +15334,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E32" t="s">
         <v>706</v>
@@ -15283,13 +15369,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E33" t="s">
         <v>707</v>
@@ -15318,13 +15404,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E34" t="s">
         <v>708</v>
@@ -15353,13 +15439,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E35" t="s">
         <v>709</v>
@@ -15388,13 +15474,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E36" t="s">
         <v>710</v>
@@ -15423,13 +15509,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E37" t="s">
         <v>711</v>
@@ -15458,13 +15544,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E38" t="s">
         <v>712</v>
@@ -15493,13 +15579,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E39" t="s">
         <v>713</v>
@@ -15528,13 +15614,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E40" t="s">
         <v>714</v>
@@ -15563,13 +15649,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E41" t="s">
         <v>715</v>
@@ -15598,13 +15684,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E42" t="s">
         <v>716</v>
@@ -15633,13 +15719,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E43" t="s">
         <v>717</v>
@@ -15668,13 +15754,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E44" t="s">
         <v>718</v>
@@ -15703,13 +15789,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E45" t="s">
         <v>719</v>
@@ -15738,13 +15824,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E46" t="s">
         <v>720</v>
@@ -15773,13 +15859,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E47" t="s">
         <v>721</v>
@@ -15808,13 +15894,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E48" t="s">
         <v>722</v>
@@ -15843,13 +15929,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E49" t="s">
         <v>723</v>
@@ -15878,13 +15964,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E50" t="s">
         <v>724</v>
@@ -15947,49 +16033,49 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>665</v>
@@ -16003,13 +16089,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -16077,13 +16163,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E3">
         <v>68</v>
@@ -16151,13 +16237,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E4">
         <v>69</v>
@@ -16225,13 +16311,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -16299,13 +16385,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E6">
         <v>90</v>
@@ -16373,13 +16459,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E7">
         <v>104</v>
@@ -16447,13 +16533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E8">
         <v>105</v>
@@ -16521,13 +16607,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E9">
         <v>114</v>
@@ -16595,13 +16681,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E10">
         <v>115</v>
@@ -16669,13 +16755,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E11">
         <v>125</v>
@@ -16743,13 +16829,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E12">
         <v>126</v>
@@ -16817,13 +16903,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E13">
         <v>127</v>
@@ -16891,13 +16977,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E14">
         <v>135</v>
@@ -16965,13 +17051,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E15">
         <v>136</v>
@@ -17039,13 +17125,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E16">
         <v>147</v>
@@ -17113,13 +17199,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E17">
         <v>152</v>
@@ -17187,13 +17273,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E18">
         <v>153</v>
@@ -17261,13 +17347,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E19">
         <v>154</v>
@@ -17335,13 +17421,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E20">
         <v>155</v>
@@ -17409,13 +17495,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E21">
         <v>161</v>
@@ -17483,13 +17569,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E22">
         <v>165</v>
@@ -17557,13 +17643,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E23">
         <v>182</v>
@@ -17631,13 +17717,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E24">
         <v>183</v>
@@ -17705,13 +17791,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E25">
         <v>196</v>
@@ -17779,13 +17865,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E26">
         <v>197</v>
@@ -17878,70 +17964,70 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>729</v>
@@ -17950,28 +18036,28 @@
         <v>730</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>788</v>
@@ -17980,58 +18066,58 @@
         <v>789</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:56">
@@ -18039,16 +18125,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18206,16 +18292,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -18373,16 +18459,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -18540,16 +18626,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18707,16 +18793,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E6" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -18874,16 +18960,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -19041,16 +19127,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -19208,16 +19294,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -19375,16 +19461,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19542,16 +19628,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E11" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -19709,16 +19795,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E12" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19876,16 +19962,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -20043,16 +20129,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -20210,16 +20296,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E15" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -20377,16 +20463,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -20544,16 +20630,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E17" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -20711,16 +20797,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -20878,16 +20964,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -21045,16 +21131,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -21212,16 +21298,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E21" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -21379,16 +21465,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -21546,16 +21632,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E23" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -21713,16 +21799,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -21880,16 +21966,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E25" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -22047,16 +22133,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E26" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -22239,109 +22325,109 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -22349,16 +22435,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F2" t="s">
         <v>595</v>
@@ -22456,16 +22542,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F3" t="s">
         <v>597</v>
@@ -22563,16 +22649,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4" t="s">
         <v>598</v>
@@ -22670,16 +22756,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F5" t="s">
         <v>599</v>
@@ -22777,16 +22863,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6" t="s">
         <v>609</v>
@@ -22884,16 +22970,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F7" t="s">
         <v>615</v>
@@ -22991,16 +23077,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F8" t="s">
         <v>616</v>
@@ -23098,16 +23184,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F9" t="s">
         <v>618</v>
@@ -23205,16 +23291,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F10" t="s">
         <v>619</v>
@@ -23312,16 +23398,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F11" t="s">
         <v>623</v>
@@ -23419,16 +23505,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F12" t="s">
         <v>624</v>
@@ -23526,16 +23612,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F13" t="s">
         <v>625</v>
@@ -23633,16 +23719,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F14" t="s">
         <v>628</v>
@@ -23740,16 +23826,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E15" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F15" t="s">
         <v>629</v>
@@ -23847,16 +23933,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F16" t="s">
         <v>630</v>
@@ -23954,16 +24040,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F17" t="s">
         <v>633</v>
@@ -24061,16 +24147,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F18" t="s">
         <v>634</v>
@@ -24168,16 +24254,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E19" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F19" t="s">
         <v>635</v>
@@ -24275,16 +24361,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F20" t="s">
         <v>636</v>
@@ -24382,16 +24468,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F21" t="s">
         <v>638</v>
@@ -24489,16 +24575,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F22" t="s">
         <v>640</v>
@@ -24596,16 +24682,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F23" t="s">
         <v>647</v>
@@ -24703,16 +24789,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F24" t="s">
         <v>648</v>
@@ -24810,16 +24896,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F25" t="s">
         <v>651</v>
@@ -24917,16 +25003,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F26" t="s">
         <v>652</v>
@@ -25049,16 +25135,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -25066,16 +25152,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -25092,16 +25178,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -25118,16 +25204,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -25144,16 +25230,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -25170,16 +25256,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -25196,16 +25282,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -25222,16 +25308,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -25248,16 +25334,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -25274,16 +25360,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -25300,16 +25386,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -25326,16 +25412,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -25352,16 +25438,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -25378,16 +25464,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -25404,16 +25490,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E15" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -25430,16 +25516,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -25456,16 +25542,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -25482,16 +25568,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -25508,16 +25594,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E19" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -25534,16 +25620,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -25560,16 +25646,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -25586,16 +25672,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -25612,16 +25698,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -25638,16 +25724,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -25664,16 +25750,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -25690,16 +25776,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -54165,7 +54251,7 @@
         <v>691</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>691</v>
@@ -54254,7 +54340,7 @@
         <v>692</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>692</v>
@@ -54521,7 +54607,7 @@
         <v>695</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>695</v>
@@ -56123,7 +56209,7 @@
         <v>713</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>713</v>
@@ -56301,7 +56387,7 @@
         <v>715</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>715</v>
@@ -56479,7 +56565,7 @@
         <v>717</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>717</v>
@@ -56568,7 +56654,7 @@
         <v>718</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>718</v>
@@ -59275,7 +59361,7 @@
         <v>781</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>781</v>
